--- a/python/algorithms/a_star_pathfinding/case_graphs.xlsx
+++ b/python/algorithms/a_star_pathfinding/case_graphs.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paulocosta/Desktop/Repositories/faang/python/algorithms/a_star_pathfinding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\source\repos\faang\python\algorithms\a_star_pathfinding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6F7773-4368-FA40-ADDA-76FD5AA3BC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDA3DAD-1EC0-494D-A020-017810AEFC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{4D32777D-C4BC-CF4C-B1FE-866C5AEA67FB}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{4D32777D-C4BC-CF4C-B1FE-866C5AEA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="graph_1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="graph_2" sheetId="1" r:id="rId3"/>
+    <sheet name="graph_2" sheetId="4" r:id="rId2"/>
+    <sheet name="graph_99" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>A</t>
   </si>
@@ -98,6 +99,18 @@
   </si>
   <si>
     <t>SQRT(A^2 + B^2)</t>
+  </si>
+  <si>
+    <t>A-&gt;D</t>
+  </si>
+  <si>
+    <t>D-&gt;C</t>
+  </si>
+  <si>
+    <t>A-&gt;D-&gt;C=</t>
+  </si>
+  <si>
+    <t>A-&gt;B-&gt;C = 12 (SHORTEST PATH)</t>
   </si>
 </sst>
 </file>
@@ -133,13 +146,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -317,6 +333,215 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>208492</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>143802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD840E6-4B1F-44DF-9F02-C034EAA19C9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="474398" y="409708"/>
+          <a:ext cx="1688571" cy="1058"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132292</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>227541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132292</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68792</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613DD3A9-387C-46ED-940E-1EB1E57592AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="401109" y="494241"/>
+          <a:ext cx="0" cy="1440393"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>216958</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>74084</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C8A450-2731-4D65-8505-7E192992C703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="482071" y="2008717"/>
+          <a:ext cx="1458913" cy="5821"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>170656</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>221721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>132821</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>43656</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C348729-6288-4A10-B8C1-10736906C13C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2032000" y="487627"/>
+          <a:ext cx="228071" cy="1417373"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1181,11 +1406,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EDA501-CBC5-EA4A-9A42-8CA4283BCEF7}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
       <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="13" width="3.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="4.33203125" style="1"/>
@@ -1193,7 +1418,7 @@
     <col min="17" max="16384" width="4.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -1234,7 +1459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1249,7 +1474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1261,7 +1486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1273,12 +1498,12 @@
         <v>8.4852813742385695</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1286,7 +1511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1294,7 +1519,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1308,12 +1533,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1325,74 +1550,167 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF192C14-21F4-EE4E-8446-274F869D2062}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7755C5-E7DA-4B34-88BF-F62D5247383D}">
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="13" width="3.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" style="1"/>
+    <col min="15" max="16" width="5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="4.33203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="3">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="2">
+        <f>8-1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <f>A2^2</f>
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <f>B2^2</f>
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <f>SQRT(C2+D2)</f>
-        <v>8.4852813742385695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>A3^2</f>
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <f>B3^2</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>SQRT(C3+D3)</f>
-        <v>6</v>
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>7+6.1</f>
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1404,12 +1722,12 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="16384" width="4.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -1447,7 +1765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1458,12 +1776,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1474,7 +1792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1482,7 +1800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1490,7 +1808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1501,7 +1819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1509,7 +1827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1517,12 +1835,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1531,4 +1849,76 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF192C14-21F4-EE4E-8446-274F869D2062}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>A2^2</f>
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <f>B2^2</f>
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <f>SQRT(C2+D2)</f>
+        <v>8.4852813742385695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>A3^2</f>
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <f>B3^2</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>SQRT(C3+D3)</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/python/algorithms/a_star_pathfinding/case_graphs.xlsx
+++ b/python/algorithms/a_star_pathfinding/case_graphs.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\source\repos\faang\python\algorithms\a_star_pathfinding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDA3DAD-1EC0-494D-A020-017810AEFC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A14129-8B39-4948-90C4-B58E04C0F87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{4D32777D-C4BC-CF4C-B1FE-866C5AEA67FB}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{4D32777D-C4BC-CF4C-B1FE-866C5AEA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="graph_1" sheetId="2" r:id="rId1"/>
     <sheet name="graph_2" sheetId="4" r:id="rId2"/>
-    <sheet name="graph_99" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="graph_3" sheetId="5" r:id="rId3"/>
+    <sheet name="graph_4" sheetId="6" r:id="rId4"/>
+    <sheet name="graph_99" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
   <si>
     <t>A</t>
   </si>
@@ -111,6 +113,15 @@
   </si>
   <si>
     <t>A-&gt;B-&gt;C = 12 (SHORTEST PATH)</t>
+  </si>
+  <si>
+    <t>A-&gt;E</t>
+  </si>
+  <si>
+    <t>E-&gt;C</t>
+  </si>
+  <si>
+    <t>A-&gt;E-&gt;C = 4.24+ 4.24 = 8.49 (SHORTEST PATH)</t>
   </si>
 </sst>
 </file>
@@ -546,15 +557,586 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>208492</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>143802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6D4FADF-89EF-43A6-9615-5E808137F408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="477309" y="409444"/>
+          <a:ext cx="1691481" cy="1058"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132292</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>227541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132292</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68792</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7478407-5152-45CD-AEB6-E084246093A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="401109" y="494241"/>
+          <a:ext cx="0" cy="1440393"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>216958</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>74084</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96809AF-36CE-4FCD-BCDE-9397DFDC1202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="482071" y="2008717"/>
+          <a:ext cx="1458913" cy="5821"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172773</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>226616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134938</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86180170-71FA-4575-AD2D-8A2134EC03C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2034117" y="492522"/>
+          <a:ext cx="228071" cy="1418961"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>205979</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>208492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>105172</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDC5B5C-D3C6-4B4D-8ABD-126873C297F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="471885" y="474398"/>
+          <a:ext cx="1494631" cy="1470290"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>208492</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>143802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35719</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144860</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D160F90-C939-4541-83B6-22D444763991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="477309" y="409444"/>
+          <a:ext cx="1691481" cy="1058"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132292</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>227541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132292</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68792</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8908D4D3-906C-4AEF-96B2-FE03CCAED31D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="401109" y="494241"/>
+          <a:ext cx="0" cy="1440393"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>216958</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>74084</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E2ECCE-0EC7-4071-AD8C-5FD82B476C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="482071" y="2008717"/>
+          <a:ext cx="1458913" cy="5821"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>172773</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>226616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>134938</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50139</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1C85A23-7331-49E6-AE12-DDD481E57194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2037556" y="493316"/>
+          <a:ext cx="228865" cy="1425311"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>211007</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>209286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>51594</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721B4B17-BD39-4329-AA60-2F0023F8B2B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476913" y="475192"/>
+          <a:ext cx="638306" cy="636058"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198438</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104114</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>84402</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CB68EE5-F754-4529-B2F4-E7BA1239BE7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1262063" y="1264047"/>
+          <a:ext cx="703395" cy="681699"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>85328</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>121709</xdr:rowOff>
+      <xdr:rowOff>123031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -568,9 +1150,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="582083" y="315383"/>
-          <a:ext cx="491067" cy="7409"/>
+        <a:xfrm>
+          <a:off x="581819" y="323189"/>
+          <a:ext cx="491728" cy="264"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -597,15 +1179,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>168672</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>107950</xdr:colOff>
+      <xdr:colOff>126603</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>35190</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -620,8 +1202,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533400" y="431800"/>
-          <a:ext cx="234950" cy="1016000"/>
+          <a:off x="498078" y="379016"/>
+          <a:ext cx="287338" cy="1059127"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -648,15 +1230,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>210476</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>125015</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>39688</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -671,8 +1253,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="901700" y="1193800"/>
-          <a:ext cx="203200" cy="273050"/>
+          <a:off x="869289" y="1168797"/>
+          <a:ext cx="243945" cy="273844"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -699,15 +1281,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>212328</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:rowOff>176609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>132953</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>32676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -722,8 +1304,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="965200" y="977900"/>
-          <a:ext cx="177800" cy="444500"/>
+          <a:off x="1200547" y="1178719"/>
+          <a:ext cx="250031" cy="457332"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -750,15 +1332,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>218281</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>148299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>110596</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>51594</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -773,8 +1355,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1587500" y="1397000"/>
-          <a:ext cx="482600" cy="279400"/>
+          <a:off x="1535906" y="1350830"/>
+          <a:ext cx="551128" cy="304139"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -801,15 +1383,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>180578</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -824,8 +1406,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1162050" y="412750"/>
-          <a:ext cx="6350" cy="622300"/>
+          <a:off x="1157552" y="384969"/>
+          <a:ext cx="11245" cy="634074"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -852,15 +1434,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>132292</xdr:rowOff>
+      <xdr:rowOff>134409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>89958</xdr:colOff>
+      <xdr:colOff>91546</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>69453</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -875,8 +1457,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1238250" y="735542"/>
-          <a:ext cx="492125" cy="320675"/>
+          <a:off x="1210469" y="735675"/>
+          <a:ext cx="528108" cy="335888"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -903,15 +1485,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>242491</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>137583</xdr:rowOff>
+      <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>74083</xdr:colOff>
+      <xdr:colOff>101203</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>112316</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -926,8 +1508,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2260600" y="1344083"/>
-          <a:ext cx="438150" cy="2117"/>
+          <a:off x="2218929" y="1313656"/>
+          <a:ext cx="517524" cy="1191"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -954,15 +1536,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>222250</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>113109</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>79905</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>115093</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -976,9 +1558,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="1612900" y="508000"/>
-          <a:ext cx="749300" cy="12700"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1869281" y="714375"/>
+          <a:ext cx="845874" cy="1984"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1005,15 +1587,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>226219</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>109140</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>74083</xdr:colOff>
+      <xdr:colOff>99616</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>89959</xdr:rowOff>
+      <xdr:rowOff>90884</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1028,8 +1610,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2916767" y="717550"/>
-          <a:ext cx="766233" cy="176742"/>
+          <a:off x="2861469" y="710406"/>
+          <a:ext cx="861616" cy="182166"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1056,15 +1638,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>208227</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>150812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>103187</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1079,8 +1661,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2578100" y="800100"/>
-          <a:ext cx="762000" cy="317500"/>
+          <a:off x="2843477" y="952500"/>
+          <a:ext cx="883179" cy="343164"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1407,7 +1989,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1553,7 +2135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7755C5-E7DA-4B34-88BF-F62D5247383D}">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -1715,11 +2297,369 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28EE03DB-6B8D-4CB3-AEE4-80D92CF402C7}">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="13" width="3.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" style="1"/>
+    <col min="15" max="16" width="5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="4.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="2">
+        <f>8-1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" s="3">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="2">
+        <f>SQRT(6^2 + 6^2)</f>
+        <v>8.4852813742385695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>7+6.1</f>
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698A786F-56E4-42BD-920C-70C68619B165}">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="13" width="3.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.33203125" style="1"/>
+    <col min="15" max="16" width="5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.609375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="4.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="2">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="1">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="2">
+        <f>7-1</f>
+        <v>6</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="2">
+        <f>8-1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="3">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>7+6.1</f>
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1D07D9-CF9E-024E-937C-936E29A2682C}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1851,7 +2791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF192C14-21F4-EE4E-8446-274F869D2062}">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/python/algorithms/a_star_pathfinding/case_graphs.xlsx
+++ b/python/algorithms/a_star_pathfinding/case_graphs.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\source\repos\faang\python\algorithms\a_star_pathfinding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A14129-8B39-4948-90C4-B58E04C0F87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FE2281-179D-4CAE-8F26-51E0CDC64E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="4" xr2:uid="{4D32777D-C4BC-CF4C-B1FE-866C5AEA67FB}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{4D32777D-C4BC-CF4C-B1FE-866C5AEA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="graph_1" sheetId="2" r:id="rId1"/>
     <sheet name="graph_2" sheetId="4" r:id="rId2"/>
     <sheet name="graph_3" sheetId="5" r:id="rId3"/>
     <sheet name="graph_4" sheetId="6" r:id="rId4"/>
-    <sheet name="graph_99" sheetId="1" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="graph_B_1" sheetId="1" r:id="rId5"/>
+    <sheet name="graph_B_2" sheetId="7" r:id="rId6"/>
+    <sheet name="graph_B_3" sheetId="8" r:id="rId7"/>
+    <sheet name="graph_B_4" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>A</t>
   </si>
@@ -1663,6 +1666,2265 @@
         <a:xfrm flipH="1">
           <a:off x="2843477" y="952500"/>
           <a:ext cx="883179" cy="343164"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85328</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151B8F7E-FC2A-4A92-9A74-B9C1ABEED536}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="579439" y="323850"/>
+          <a:ext cx="492785" cy="264"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168672</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>126603</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>35190</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2ED679-F7F9-4C77-9435-0DF697700618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="499402" y="377032"/>
+          <a:ext cx="286014" cy="1057804"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>210476</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125015</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B9290D1-A1A5-4A72-962B-F162C8916436}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="865584" y="1168400"/>
+          <a:ext cx="246857" cy="271463"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212328</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>132953</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BBED9FF-2F98-4545-8C81-47B56BCAC6CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1196049" y="1175147"/>
+          <a:ext cx="253471" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>218281</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>110596</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBED92D-D628-4E44-B836-B606D874DD15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1531673" y="1347920"/>
+          <a:ext cx="550069" cy="305462"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180578</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C077EE-8E16-467E-A06E-7C14EC082365}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1157288" y="384043"/>
+          <a:ext cx="8070" cy="635132"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>134409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91546</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69453</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8AB5E50-4EF9-4459-96BB-32B9F3741774}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1207559" y="732367"/>
+          <a:ext cx="529167" cy="336153"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242491</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101203</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112316</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1074CBD8-D913-4C70-9076-A09F5E40DACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2215754" y="1310746"/>
+          <a:ext cx="512762" cy="1720"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>79905</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>115093</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA99EF80-49B8-4C61-98E3-3CAB6178DB19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1864784" y="713184"/>
+          <a:ext cx="844551" cy="1984"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99616</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90884</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B10E2C7-ECBB-4BB4-A978-01747A44E71A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2854590" y="708686"/>
+          <a:ext cx="858177" cy="183886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>208227</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103187</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F27BFB-AF33-4EF5-834A-715D5A6C689A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2839244" y="950912"/>
+          <a:ext cx="877094" cy="344488"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220266</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>124089</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4A1D14A-0434-4D70-AF28-07C05039C841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="549672" y="367109"/>
+          <a:ext cx="562636" cy="701411"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85328</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19E7B6C-F62F-4F5C-9738-A0582B23D35D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="579439" y="323850"/>
+          <a:ext cx="492785" cy="264"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168672</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>126603</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>35190</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6B94F4-E3D3-46A1-8005-F75A4CB957CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="499402" y="377032"/>
+          <a:ext cx="286014" cy="1057804"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>210476</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125015</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD2C062C-58D4-44A8-B544-0AADB64BB1B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="865584" y="1168400"/>
+          <a:ext cx="246857" cy="271463"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212328</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>132953</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB86C45-AA52-4908-8CCC-8E77D42765D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1196049" y="1175147"/>
+          <a:ext cx="253471" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>218281</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>110596</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{858CF2AF-1BCC-4616-A13A-F435B0E4563D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1531673" y="1347920"/>
+          <a:ext cx="550069" cy="305462"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180578</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA43F91-091C-450E-9C0E-EDED9CCA64DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1157288" y="384043"/>
+          <a:ext cx="8070" cy="635132"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>134409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91546</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69453</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BC13B2-E786-411F-8969-44FE9A2F91A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1207559" y="732367"/>
+          <a:ext cx="529167" cy="336153"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242491</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101203</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112316</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5416F060-CD04-49AE-93D3-72685332EC7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2215754" y="1310746"/>
+          <a:ext cx="512762" cy="1720"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>79905</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>115093</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AD613A8-7F58-4572-8E81-CD9868ACE310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1864784" y="713184"/>
+          <a:ext cx="844551" cy="1984"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99616</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90884</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CADA4E4-67B5-4ED2-88FF-5333B92D6291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2854590" y="708686"/>
+          <a:ext cx="858177" cy="183886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>208227</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103187</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A260EDDA-B237-49BD-967B-ECF93603B634}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2839244" y="950912"/>
+          <a:ext cx="877094" cy="344488"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220266</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>124089</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2239444-F32A-4DBD-A6E5-30C2F5A61062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="547821" y="368300"/>
+          <a:ext cx="563164" cy="697177"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>217223</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42202</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BEBBAD-740F-478D-90F0-83F6ABE3FB59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2193661" y="777875"/>
+          <a:ext cx="552714" cy="466858"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>230187</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122105</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59928</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AB7694-C0CA-4920-95DD-FA6235B81FA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1218406" y="337344"/>
+          <a:ext cx="550730" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85328</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123031</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C8286F-E866-4807-8A59-9B9B21FB7C5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="579439" y="323850"/>
+          <a:ext cx="492785" cy="264"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168672</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>126603</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>35190</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D41010-576B-42BC-A062-19EFD6C08183}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="499402" y="377032"/>
+          <a:ext cx="286014" cy="1057804"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>210476</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>125015</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7ECF47-E98E-4FF7-8562-2AC7C1B6B5F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="865584" y="1168400"/>
+          <a:ext cx="246857" cy="271463"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>212328</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>132953</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF033A7-D5C2-46EB-8F5B-7767E77553EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1196049" y="1175147"/>
+          <a:ext cx="253471" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>218281</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>148299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>110596</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51594</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1FEA231-B5A5-471B-AA56-377AF465C7A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1531673" y="1347920"/>
+          <a:ext cx="550069" cy="305462"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184547</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180578</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79276BF6-7DA9-49B5-8743-51D9C63354D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1157288" y="384043"/>
+          <a:ext cx="8070" cy="635132"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>134409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>91546</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>69453</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37787D05-8900-4447-A1AA-963238CF9066}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1207559" y="732367"/>
+          <a:ext cx="529167" cy="336153"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242491</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>101203</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112316</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB554D99-A4F3-463F-A447-3382950A8269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2215754" y="1310746"/>
+          <a:ext cx="512762" cy="1720"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>79905</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>115093</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAE4451-DF1C-4AA9-9251-1E66C13D6213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1864784" y="713184"/>
+          <a:ext cx="844551" cy="1984"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>226219</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>109140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99616</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90884</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687F95AD-E96E-4C7C-82F1-4EA7599B2064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2854590" y="708686"/>
+          <a:ext cx="858177" cy="183886"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>208227</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103187</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34321FF-04EA-4AF7-9C9E-89579FCFE316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2839244" y="950912"/>
+          <a:ext cx="877094" cy="344488"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220266</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>124089</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>66410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D46BA35-E95F-4E6F-B7E0-519DC40BD5B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="547821" y="368300"/>
+          <a:ext cx="563164" cy="697177"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>217223</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176609</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42202</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA94158-F744-49C7-B01A-1DEF4CF30424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2187311" y="775097"/>
+          <a:ext cx="552185" cy="467785"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>230187</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>136922</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>122105</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59928</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B9E9D4-5234-49BE-B702-7015C524E2AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1216025" y="334830"/>
+          <a:ext cx="550201" cy="323056"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>232171</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>140891</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>110596</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>97102</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA2E8E06-91C7-4445-9C79-6B94780FD6AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="890984" y="1543844"/>
+          <a:ext cx="537237" cy="156633"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>175023</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>175022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>132953</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D712CDC-178D-4C15-B6AD-432A4F58C834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1822054" y="776288"/>
+          <a:ext cx="287337" cy="461962"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168672</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>188515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>170524</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9922</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C257FEFB-40FC-449E-9F97-A55F14B0E203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2803922" y="789781"/>
+          <a:ext cx="1852" cy="422672"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>194469</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>181504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>124090</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1984</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B678E0A3-ABA8-46B7-8157-B61E424C6236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1512094" y="782770"/>
+          <a:ext cx="259027" cy="822589"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1988,7 +4250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EDA501-CBC5-EA4A-9A42-8CA4283BCEF7}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -2658,8 +4920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1D07D9-CF9E-024E-937C-936E29A2682C}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -2792,6 +5054,417 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5401486E-E1B0-4BF6-9CAD-4B50E063BBF6}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="4.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDFE053-2211-4A8D-81A0-21A0119A3446}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="4.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9E5370-FB59-447F-9E6A-1C08D491E5BD}">
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="4.33203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF192C14-21F4-EE4E-8446-274F869D2062}">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/python/algorithms/a_star_pathfinding/case_graphs.xlsx
+++ b/python/algorithms/a_star_pathfinding/case_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\source\repos\faang\python\algorithms\a_star_pathfinding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FE2281-179D-4CAE-8F26-51E0CDC64E0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202018CB-343C-4DBE-92FF-BCD0A2C8D05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{4D32777D-C4BC-CF4C-B1FE-866C5AEA67FB}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="7" xr2:uid="{4D32777D-C4BC-CF4C-B1FE-866C5AEA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="graph_1" sheetId="2" r:id="rId1"/>
@@ -4250,7 +4250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EDA501-CBC5-EA4A-9A42-8CA4283BCEF7}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
@@ -5331,7 +5331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9E5370-FB59-447F-9E6A-1C08D491E5BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/python/algorithms/a_star_pathfinding/case_graphs.xlsx
+++ b/python/algorithms/a_star_pathfinding/case_graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\source\repos\faang\python\algorithms\a_star_pathfinding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202018CB-343C-4DBE-92FF-BCD0A2C8D05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D5D663-FDCB-495B-AAD7-52E6D48D2CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="7" xr2:uid="{4D32777D-C4BC-CF4C-B1FE-866C5AEA67FB}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="8" xr2:uid="{4D32777D-C4BC-CF4C-B1FE-866C5AEA67FB}"/>
   </bookViews>
   <sheets>
     <sheet name="graph_1" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="graph_B_2" sheetId="7" r:id="rId6"/>
     <sheet name="graph_B_3" sheetId="8" r:id="rId7"/>
     <sheet name="graph_B_4" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId9"/>
+    <sheet name="graph_C_1" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
   <si>
     <t>A</t>
   </si>
@@ -126,6 +127,15 @@
   <si>
     <t>A-&gt;E-&gt;C = 4.24+ 4.24 = 8.49 (SHORTEST PATH)</t>
   </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
 </sst>
 </file>
 
@@ -3925,6 +3935,674 @@
         <a:xfrm flipH="1">
           <a:off x="1512094" y="782770"/>
           <a:ext cx="259027" cy="822589"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>248312</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>120122</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>91281</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121047</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ADC74C8-8623-4EC6-B0E7-C529010ACD13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="577718" y="320544"/>
+          <a:ext cx="501782" cy="925"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228468</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99219</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63CEA3B0-199F-4026-9519-ED0B53EC6296}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1216687" y="314591"/>
+          <a:ext cx="529563" cy="4893"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>237331</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>37703</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C98C588-AF27-41C6-B85B-10E27ED597A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1884362" y="315121"/>
+          <a:ext cx="211138" cy="323848"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>208492</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>93265</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33205</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4182296-4B7A-497C-85AE-F20535D0AE02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2184930" y="311547"/>
+          <a:ext cx="214179" cy="322924"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236140</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>132953</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>55562</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02370DB4-ADCC-469D-BA9C-32CC7158F33B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2541984" y="319484"/>
+          <a:ext cx="226219" cy="337344"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>208359</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>97102</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Straight Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C021D2-BB11-4BEF-834C-396383E57E80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2843609" y="322527"/>
+          <a:ext cx="218149" cy="326364"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>250429</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>110596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>115093</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33734</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72F1C7ED-1D10-4B81-90D0-8674F285A0E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3215085" y="311018"/>
+          <a:ext cx="194071" cy="524404"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>212328</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>122105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122105</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>25796</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Straight Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90A3AE94-21BB-409C-B813-CB2102D53068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3506391" y="322527"/>
+          <a:ext cx="239183" cy="504957"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>218281</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133086</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>48683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E650F66-2C0E-49AE-94CC-33BF535A6331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3841750" y="329406"/>
+          <a:ext cx="244211" cy="520965"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220266</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>97102</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6750E7-9F3A-4CB6-8CF5-5F711A5A39B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4173141" y="329010"/>
+          <a:ext cx="206242" cy="540146"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>170789</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>194999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>87312</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>113109</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5182DFD4-86BE-4EFC-970B-413B5651D072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="500195" y="395421"/>
+          <a:ext cx="1563555" cy="719798"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228203</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>108611</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>77391</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>111124</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2AB3B74-4CDB-49BD-B97D-B3026A676C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2204641" y="1110721"/>
+          <a:ext cx="2155031" cy="2513"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>164703</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>166291</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17859</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D24675-D3D4-413F-9C8E-D73B187EEDEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4446984" y="375444"/>
+          <a:ext cx="1588" cy="644525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -4393,6 +5071,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF192C14-21F4-EE4E-8446-274F869D2062}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>A2^2</f>
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <f>B2^2</f>
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <f>SQRT(C2+D2)</f>
+        <v>8.4852813742385695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>A3^2</f>
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <f>B3^2</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>SQRT(C3+D3)</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7755C5-E7DA-4B34-88BF-F62D5247383D}">
   <dimension ref="A1:S10"/>
@@ -5331,7 +6081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9E5370-FB59-447F-9E6A-1C08D491E5BD}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -5465,73 +6215,159 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF192C14-21F4-EE4E-8446-274F869D2062}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92B9CCE-47DB-4F84-BD69-E013ADAC5ACB}">
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="4.33203125" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="4.33203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C2">
-        <f>A2^2</f>
-        <v>36</v>
-      </c>
-      <c r="D2">
-        <f>B2^2</f>
-        <v>36</v>
-      </c>
-      <c r="E2">
-        <f>SQRT(C2+D2)</f>
-        <v>8.4852813742385695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f>A3^2</f>
-        <v>36</v>
-      </c>
-      <c r="D3">
-        <f>B3^2</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>SQRT(C3+D3)</f>
-        <v>6</v>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>